--- a/ReDistr/Параметры.xlsx
+++ b/ReDistr/Параметры.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\VBA Excel\Формирование перемещений на основе расхода\Макрос\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Исключения" sheetId="2" r:id="rId1"/>
     <sheet name="Кратность" sheetId="1" r:id="rId2"/>
+    <sheet name="В упаковке" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="685">
   <si>
     <t>Код</t>
   </si>
@@ -2065,6 +2066,21 @@
   </si>
   <si>
     <t>Краснопутиловская</t>
+  </si>
+  <si>
+    <t>SPB-006354</t>
+  </si>
+  <si>
+    <t>0000001747</t>
+  </si>
+  <si>
+    <t>0000002693</t>
+  </si>
+  <si>
+    <t>Х000016814</t>
+  </si>
+  <si>
+    <t>В упаковке</t>
   </si>
 </sst>
 </file>
@@ -2120,14 +2136,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2425,35 +2491,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2466,11 +2532,108 @@
         <v>679</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2484,15 +2647,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
+      <selection pane="bottomLeft" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2500,13 +2663,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2514,16 +2677,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2">
@@ -2531,16 +2694,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
@@ -2548,16 +2711,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4">
@@ -2565,16 +2728,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -2582,16 +2745,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6">
@@ -2599,16 +2762,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7">
@@ -2616,16 +2779,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E8">
@@ -2633,16 +2796,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -2650,16 +2813,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10">
@@ -2667,16 +2830,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E11">
@@ -2684,16 +2847,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E12">
@@ -2701,16 +2864,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E13">
@@ -2718,16 +2881,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E14">
@@ -2735,16 +2898,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E15">
@@ -2752,16 +2915,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E16">
@@ -2769,16 +2932,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E17">
@@ -2786,16 +2949,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E18">
@@ -2803,16 +2966,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19">
@@ -2820,16 +2983,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E20">
@@ -2837,16 +3000,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E21">
@@ -2854,16 +3017,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E22">
@@ -2871,16 +3034,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E23">
@@ -2888,16 +3051,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E24">
@@ -2905,16 +3068,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E25">
@@ -2922,16 +3085,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E26">
@@ -2939,16 +3102,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E27">
@@ -2956,16 +3119,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E28">
@@ -2973,16 +3136,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E29">
@@ -2990,16 +3153,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E30">
@@ -3007,16 +3170,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E31">
@@ -3024,16 +3187,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E32">
@@ -3041,16 +3204,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E33">
@@ -3058,16 +3221,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E34">
@@ -3075,16 +3238,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E35">
@@ -3092,16 +3255,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E36">
@@ -3109,16 +3272,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E37">
@@ -3126,16 +3289,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E38">
@@ -3143,16 +3306,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E39">
@@ -3160,16 +3323,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E40">
@@ -3177,16 +3340,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E41">
@@ -3194,16 +3357,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E42">
@@ -3211,16 +3374,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E43">
@@ -3228,16 +3391,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E44">
@@ -3245,16 +3408,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E45">
@@ -3262,16 +3425,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E46">
@@ -3279,16 +3442,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E47">
@@ -3296,16 +3459,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E48">
@@ -3313,16 +3476,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E49">
@@ -3330,16 +3493,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E50">
@@ -3347,16 +3510,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E51">
@@ -3364,16 +3527,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E52">
@@ -3381,16 +3544,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E53">
@@ -3398,16 +3561,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E54">
@@ -3415,16 +3578,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E55">
@@ -3432,16 +3595,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E56">
@@ -3449,16 +3612,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E57">
@@ -3466,16 +3629,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E58">
@@ -3483,16 +3646,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E59">
@@ -3500,16 +3663,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E60">
@@ -3517,16 +3680,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E61">
@@ -3534,16 +3697,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E62">
@@ -3551,16 +3714,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E63">
@@ -3568,16 +3731,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E64">
@@ -3585,16 +3748,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E65">
@@ -3602,16 +3765,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E66">
@@ -3619,16 +3782,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E67">
@@ -3636,16 +3799,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E68">
@@ -3653,16 +3816,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E69">
@@ -3670,16 +3833,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E70">
@@ -3687,16 +3850,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E71">
@@ -3704,16 +3867,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E72">
@@ -3721,16 +3884,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E73">
@@ -3738,16 +3901,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E74">
@@ -3755,16 +3918,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E75">
@@ -3772,16 +3935,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E76">
@@ -3789,16 +3952,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E77">
@@ -3806,16 +3969,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E78">
@@ -3823,16 +3986,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E79">
@@ -3840,16 +4003,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E80">
@@ -3857,16 +4020,16 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E81">
@@ -3874,16 +4037,16 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E82">
@@ -3891,16 +4054,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E83">
@@ -3908,16 +4071,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E84">
@@ -3925,16 +4088,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E85">
@@ -3942,16 +4105,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E86">
@@ -3959,16 +4122,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E87">
@@ -3976,16 +4139,16 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E88">
@@ -3993,16 +4156,16 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E89">
@@ -4010,16 +4173,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E90">
@@ -4027,16 +4190,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E91">
@@ -4044,16 +4207,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E92">
@@ -4061,16 +4224,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E93">
@@ -4078,16 +4241,16 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E94">
@@ -4095,16 +4258,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E95">
@@ -4112,16 +4275,16 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E96">
@@ -4129,16 +4292,16 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E97">
@@ -4146,16 +4309,16 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>289</v>
       </c>
       <c r="E98">
@@ -4163,16 +4326,16 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E99">
@@ -4180,16 +4343,16 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E100">
@@ -4197,16 +4360,16 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E101">
@@ -4214,16 +4377,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E102">
@@ -4231,16 +4394,16 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E103">
@@ -4248,16 +4411,16 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E104">
@@ -4265,16 +4428,16 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E105">
@@ -4282,16 +4445,16 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E106">
@@ -4299,16 +4462,16 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E107">
@@ -4316,16 +4479,16 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>316</v>
       </c>
       <c r="E108">
@@ -4333,16 +4496,16 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E109">
@@ -4350,16 +4513,16 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E110">
@@ -4367,16 +4530,16 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E111">
@@ -4384,16 +4547,16 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E112">
@@ -4401,16 +4564,16 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>332</v>
       </c>
       <c r="E113">
@@ -4418,16 +4581,16 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E114">
@@ -4435,16 +4598,16 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E115">
@@ -4452,16 +4615,16 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E116">
@@ -4469,16 +4632,16 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E117">
@@ -4486,16 +4649,16 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E118">
@@ -4503,16 +4666,16 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E119">
@@ -4520,16 +4683,16 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E120">
@@ -4537,16 +4700,16 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E121">
@@ -4554,16 +4717,16 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E122">
@@ -4571,16 +4734,16 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E123">
@@ -4588,16 +4751,16 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E124">
@@ -4605,16 +4768,16 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E125">
@@ -4622,16 +4785,16 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E126">
@@ -4639,16 +4802,16 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E127">
@@ -4656,16 +4819,16 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E128">
@@ -4673,16 +4836,16 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E129">
@@ -4690,16 +4853,16 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E130">
@@ -4707,16 +4870,16 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E131">
@@ -4724,16 +4887,16 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E132">
@@ -4741,16 +4904,16 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E133">
@@ -4758,16 +4921,16 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E134">
@@ -4775,16 +4938,16 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E135">
@@ -4792,16 +4955,16 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E136">
@@ -4809,16 +4972,16 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E137">
@@ -4826,16 +4989,16 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E138">
@@ -4843,16 +5006,16 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E139">
@@ -4860,16 +5023,16 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E140">
@@ -4877,16 +5040,16 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E141">
@@ -4894,16 +5057,16 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E142">
@@ -4911,16 +5074,16 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E143">
@@ -4928,16 +5091,16 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E144">
@@ -4945,16 +5108,16 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E145">
@@ -4962,16 +5125,16 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E146">
@@ -4979,16 +5142,16 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E147">
@@ -4996,16 +5159,16 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E148">
@@ -5013,16 +5176,16 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E149">
@@ -5030,16 +5193,16 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E150">
@@ -5047,16 +5210,16 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E151">
@@ -5064,16 +5227,16 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E152">
@@ -5081,16 +5244,16 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E153">
@@ -5098,16 +5261,16 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E154">
@@ -5115,16 +5278,16 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E155">
@@ -5132,16 +5295,16 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E156">
@@ -5149,16 +5312,16 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E157">
@@ -5166,16 +5329,16 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E158">
@@ -5183,16 +5346,16 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E159">
@@ -5200,16 +5363,16 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E160">
@@ -5217,16 +5380,16 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E161">
@@ -5234,16 +5397,16 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E162">
@@ -5251,16 +5414,16 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E163">
@@ -5268,16 +5431,16 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E164">
@@ -5285,16 +5448,16 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>466</v>
       </c>
       <c r="E165">
@@ -5302,16 +5465,16 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>470</v>
       </c>
       <c r="E166">
@@ -5319,16 +5482,16 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E167">
@@ -5336,16 +5499,16 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E168">
@@ -5353,16 +5516,16 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E169">
@@ -5370,16 +5533,16 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>482</v>
       </c>
       <c r="E170">
@@ -5387,16 +5550,16 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E171">
@@ -5404,16 +5567,16 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>488</v>
       </c>
       <c r="E172">
@@ -5421,16 +5584,16 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>491</v>
       </c>
       <c r="E173">
@@ -5438,16 +5601,16 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E174">
@@ -5455,16 +5618,16 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>496</v>
       </c>
       <c r="E175">
@@ -5472,16 +5635,16 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E176">
@@ -5489,16 +5652,16 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E177">
@@ -5506,16 +5669,16 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E178">
@@ -5523,16 +5686,16 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E179">
@@ -5540,16 +5703,16 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E180">
@@ -5557,16 +5720,16 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E181">
@@ -5574,16 +5737,16 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E182">
@@ -5591,16 +5754,16 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E183">
@@ -5608,16 +5771,16 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E184">
@@ -5625,16 +5788,16 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E185">
@@ -5642,16 +5805,16 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>527</v>
       </c>
       <c r="E186">
@@ -5659,16 +5822,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>527</v>
       </c>
       <c r="E187">
@@ -5676,16 +5839,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E188">
@@ -5693,16 +5856,16 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E189">
@@ -5710,16 +5873,16 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E190">
@@ -5727,16 +5890,16 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E191">
@@ -5744,16 +5907,16 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E192">
@@ -5761,16 +5924,16 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E193">
@@ -5778,16 +5941,16 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E194">
@@ -5795,16 +5958,16 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E195">
@@ -5812,16 +5975,16 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E196">
@@ -5829,16 +5992,16 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E197">
@@ -5846,16 +6009,16 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E198">
@@ -5863,16 +6026,16 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E199">
@@ -5880,16 +6043,16 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E200">
@@ -5897,16 +6060,16 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E201">
@@ -5914,16 +6077,16 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E202">
@@ -5931,16 +6094,16 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E203">
@@ -5948,16 +6111,16 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E204">
@@ -5965,16 +6128,16 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E205">
@@ -5982,16 +6145,16 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E206">
@@ -5999,16 +6162,16 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E207">
@@ -6016,16 +6179,16 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E208">
@@ -6033,16 +6196,16 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E209">
@@ -6050,16 +6213,16 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E210">
@@ -6067,16 +6230,16 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>549</v>
       </c>
       <c r="E211">
@@ -6084,16 +6247,16 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E212">
@@ -6101,16 +6264,16 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E213">
@@ -6118,16 +6281,16 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E214">
@@ -6135,16 +6298,16 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>613</v>
       </c>
       <c r="E215">
@@ -6152,16 +6315,16 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>617</v>
       </c>
       <c r="E216">
@@ -6169,16 +6332,16 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E217">
@@ -6186,16 +6349,16 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>623</v>
       </c>
       <c r="E218">
@@ -6203,16 +6366,16 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E219">
@@ -6220,16 +6383,16 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E220">
@@ -6237,16 +6400,16 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E221">
@@ -6254,16 +6417,16 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E222">
@@ -6271,16 +6434,16 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>316</v>
       </c>
       <c r="E223">
@@ -6288,16 +6451,16 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>642</v>
       </c>
       <c r="E224">
@@ -6305,16 +6468,16 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>527</v>
       </c>
       <c r="E225">
@@ -6322,16 +6485,16 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>617</v>
       </c>
       <c r="E226">
@@ -6339,16 +6502,16 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E227">
@@ -6356,16 +6519,16 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E228">
@@ -6373,16 +6536,16 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E229">
@@ -6390,16 +6553,16 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E230">
@@ -6407,16 +6570,16 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>661</v>
       </c>
       <c r="E231">
@@ -6424,16 +6587,16 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E232">
@@ -6441,16 +6604,16 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E233">
@@ -6458,16 +6621,16 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E234">
@@ -6475,16 +6638,16 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>673</v>
       </c>
       <c r="E235">
@@ -6492,16 +6655,16 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E236">
@@ -6510,6 +6673,323 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1 A7:A17">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
